--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -176,7 +176,7 @@
     <t>Identificador unico sobre el registo de estaciones policiales</t>
   </si>
   <si>
-    <t>policeStations</t>
+    <t>police_stations</t>
   </si>
   <si>
     <t>police_post</t>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="155">
   <si>
     <t>Tabla</t>
   </si>
@@ -80,7 +80,10 @@
     <t>ENUM</t>
   </si>
   <si>
-    <t>Prioridad que se le da a una llamada</t>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Prioridad que se le da a una llamada (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>call_number</t>
@@ -107,7 +110,7 @@
     <t>incident_location</t>
   </si>
   <si>
-    <t>Vecindario donde ocurrio el incidente</t>
+    <t>Localicazion donde ocurrio el incidente</t>
   </si>
   <si>
     <t>needs_sync</t>
@@ -128,34 +131,31 @@
     <t>location</t>
   </si>
   <si>
-    <t>Localizacion exacta del reporte</t>
+    <t>Localizacion exacta de la persona haciendo el reporte</t>
   </si>
   <si>
     <t>council_district</t>
   </si>
   <si>
-    <t>Numero del consejo de distrito</t>
+    <t>Numero del consejo de distrito (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>community_statistical_areas</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Grupo de vecindarios basados en vecindarios conocidos en la ciudad</t>
+    <t>Grupo de vecindarios basados en vecindarios conocidos en la ciudad (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>census_tracts</t>
   </si>
   <si>
-    <t>Áreas pequeñas en un condado con un número único para identificarlas.</t>
+    <t>Áreas pequeñas en un condado con un número único para identificarlas. (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>zip_code</t>
   </si>
   <si>
-    <t>Codigo postal</t>
+    <t>Codigo postal (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>esri_oid</t>
@@ -167,7 +167,7 @@
     <t>neighborhood</t>
   </si>
   <si>
-    <t>Nombre del vecindario</t>
+    <t>Nombre del vecindario (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>police_station_ID</t>
@@ -188,13 +188,13 @@
     <t>sheriff_district</t>
   </si>
   <si>
-    <t>Identificador del numero del distrito del sheriff</t>
+    <t>Identificador del numero del distrito del sheriff (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>police_district</t>
   </si>
   <si>
-    <t>Area vigilada por la policia</t>
+    <t>Area vigilada por la policia (NULL: Dentro de la base que se importo habian espacios vacios, mas no se recomienda dejar este campo como NULL)</t>
   </si>
   <si>
     <t>recordld</t>
@@ -974,7 +974,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.75"/>
     <col customWidth="1" min="2" max="2" width="22.5"/>
-    <col customWidth="1" min="7" max="7" width="67.0"/>
+    <col customWidth="1" min="6" max="6" width="7.0"/>
+    <col customWidth="1" min="7" max="7" width="9.13"/>
+    <col customWidth="1" min="8" max="8" width="67.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -996,7 +998,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1018,7 +1021,8 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1035,7 +1039,8 @@
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1046,7 +1051,8 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1060,13 +1066,16 @@
       <c r="D7" s="2">
         <v>50.0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1074,13 +1083,14 @@
       <c r="D8" s="2">
         <v>50.0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -1096,13 +1106,14 @@
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1110,13 +1121,14 @@
       <c r="D13" s="2">
         <v>50.0</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1124,13 +1136,14 @@
       <c r="D14" s="2">
         <v>300.0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>28</v>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1138,13 +1151,14 @@
       <c r="D15" s="2">
         <v>300.0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>30</v>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1152,13 +1166,14 @@
       <c r="D16" s="2">
         <v>10.0</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -1169,18 +1184,19 @@
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -1191,13 +1207,14 @@
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>34</v>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1206,13 +1223,14 @@
         <v>300.0</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>37</v>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1220,13 +1238,16 @@
       <c r="D23" s="2">
         <v>10.0</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>39</v>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1235,9 +1256,9 @@
         <v>100.0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1252,9 +1273,9 @@
         <v>50.0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1268,7 +1289,10 @@
       <c r="D26" s="2">
         <v>20.0</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1283,9 +1307,10 @@
         <v>50.0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1299,7 +1324,10 @@
       <c r="D28" s="2">
         <v>50.0</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1316,7 +1344,8 @@
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1338,7 +1367,8 @@
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1352,7 +1382,8 @@
       <c r="D33" s="2">
         <v>50.0</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1366,10 +1397,13 @@
       <c r="D34" s="2">
         <v>20.0</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
@@ -1381,7 +1415,10 @@
       <c r="D35" s="2">
         <v>50.0</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
